--- a/capitol_arrests_012220-010521.xlsx
+++ b/capitol_arrests_012220-010521.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trana/Documents/Projects/capitol_police_reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trana/Documents/Projects/us_capitol_police_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{12911087-EEA4-8B41-A7BF-BB8DF9A99666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C7E3C-6DFA-9F49-80FB-F968097C32EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45800" yWindow="-12340" windowWidth="26620" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50900" yWindow="-14220" windowWidth="26620" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capitol_arrests_-010621" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'capitol_arrests_-010621'!$G$1:$G$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'capitol_arrests_-010621'!$G$1:$G$312</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="467">
   <si>
     <t>date</t>
   </si>
@@ -2288,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G336"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A284" activeCellId="19" sqref="A25:XFD25 A46:XFD46 A86:XFD86 A123:XFD123 A127:XFD127 A131:XFD131 A146:XFD146 A154:XFD154 A162:XFD162 A167:XFD167 A172:XFD172 A176:XFD176 A179:XFD179 A185:XFD185 A184:XFD184 A198:XFD198 A201:XFD201 A265:XFD265 A275:XFD275 A284:XFD284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2370,7 +2370,7 @@
         <v>52</v>
       </c>
       <c r="G3" t="b">
-        <f t="shared" ref="G3:G66" si="0">ISNUMBER(SEARCH("suspects",E3))</f>
+        <f t="shared" ref="G3:G59" si="0">ISNUMBER(SEARCH("suspects",E3))</f>
         <v>0</v>
       </c>
     </row>
@@ -2664,22 +2664,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D16" s="2">
-        <v>0.29236111111111113</v>
+        <v>0.4145833333333333</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" t="b">
         <f t="shared" si="0"/>
@@ -2688,22 +2688,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="D17" s="2">
-        <v>0.4145833333333333</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G17" t="b">
         <f t="shared" si="0"/>
@@ -2712,22 +2712,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1">
-        <v>44186</v>
+        <v>44176</v>
       </c>
       <c r="D18" s="2">
-        <v>0.4145833333333333</v>
+        <v>0.90416666666666667</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" t="b">
         <f t="shared" si="0"/>
@@ -2736,19 +2736,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
-        <v>44179</v>
+        <v>44176</v>
       </c>
       <c r="D19" s="2">
-        <v>0.30208333333333331</v>
+        <v>0.90416666666666667</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -2760,22 +2760,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>44179</v>
+        <v>44168</v>
       </c>
       <c r="D20" s="2">
-        <v>0.30208333333333331</v>
+        <v>4.5138888888888888E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G20" t="b">
         <f t="shared" si="0"/>
@@ -2784,22 +2784,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>44176</v>
+        <v>44158</v>
       </c>
       <c r="D21" s="2">
-        <v>0.90416666666666667</v>
+        <v>0.83124999999999993</v>
       </c>
       <c r="E21" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G21" t="b">
         <f t="shared" si="0"/>
@@ -2808,22 +2808,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
-        <v>44176</v>
+        <v>44158</v>
       </c>
       <c r="D22" s="2">
-        <v>0.90416666666666667</v>
+        <v>0.83124999999999993</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G22" t="b">
         <f t="shared" si="0"/>
@@ -2832,22 +2832,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1">
-        <v>44168</v>
+        <v>44158</v>
       </c>
       <c r="D23" s="2">
-        <v>4.5138888888888888E-2</v>
+        <v>0.83124999999999993</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G23" t="b">
         <f t="shared" si="0"/>
@@ -2856,22 +2856,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>44168</v>
+        <v>44158</v>
       </c>
       <c r="D24" s="2">
-        <v>4.5138888888888888E-2</v>
+        <v>0.83124999999999993</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G24" t="b">
         <f t="shared" si="0"/>
@@ -2880,19 +2880,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1">
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="D25" s="2">
-        <v>0.83124999999999993</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
@@ -2904,19 +2904,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1">
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="D26" s="2">
-        <v>0.83124999999999993</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -2928,19 +2928,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1">
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="D27" s="2">
-        <v>0.83124999999999993</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="E27" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="F27" t="s">
         <v>40</v>
@@ -2952,19 +2952,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="D28" s="2">
-        <v>0.83124999999999993</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="F28" t="s">
         <v>40</v>
@@ -2976,19 +2976,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1">
-        <v>44158</v>
+        <v>44153</v>
       </c>
       <c r="D29" s="2">
-        <v>0.83124999999999993</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="E29" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="F29" t="s">
         <v>40</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
-        <v>44158</v>
+        <v>44153</v>
       </c>
       <c r="D30" s="2">
-        <v>0.83124999999999993</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="E30" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="F30" t="s">
         <v>40</v>
@@ -3024,19 +3024,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="D31" s="2">
-        <v>0.93125000000000002</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="E31" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -3048,19 +3048,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="D32" s="2">
-        <v>0.93125000000000002</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="E32" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3072,22 +3072,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1">
-        <v>44155</v>
+        <v>44152</v>
       </c>
       <c r="D33" s="2">
-        <v>0.93125000000000002</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E33" t="s">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G33" t="b">
         <f t="shared" si="0"/>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>44155</v>
+        <v>44150</v>
       </c>
       <c r="D34" s="2">
-        <v>0.93125000000000002</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="E34" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G34" t="b">
         <f t="shared" si="0"/>
@@ -3120,22 +3120,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>44153</v>
+        <v>44150</v>
       </c>
       <c r="D35" s="2">
-        <v>0.58402777777777781</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="E35" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G35" t="b">
         <f t="shared" si="0"/>
@@ -3144,22 +3144,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>44153</v>
+        <v>44150</v>
       </c>
       <c r="D36" s="2">
-        <v>0.58402777777777781</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="E36" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G36" t="b">
         <f t="shared" si="0"/>
@@ -3168,22 +3168,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1">
-        <v>44153</v>
+        <v>44149</v>
       </c>
       <c r="D37" s="2">
-        <v>0.58402777777777781</v>
+        <v>0.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>443</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G37" t="b">
         <f t="shared" si="0"/>
@@ -3192,22 +3192,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
-        <v>44153</v>
+        <v>44144</v>
       </c>
       <c r="D38" s="2">
-        <v>0.58402777777777781</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="E38" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G38" t="b">
         <f t="shared" si="0"/>
@@ -3216,22 +3216,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1">
-        <v>44152</v>
+        <v>44144</v>
       </c>
       <c r="D39" s="2">
-        <v>0.57638888888888895</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="E39" t="s">
-        <v>307</v>
+        <v>418</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G39" t="b">
         <f t="shared" si="0"/>
@@ -3240,22 +3240,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
-        <v>44150</v>
+        <v>44144</v>
       </c>
       <c r="D40" s="2">
-        <v>9.7222222222222224E-3</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G40" t="b">
         <f t="shared" si="0"/>
@@ -3264,22 +3264,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
-        <v>44150</v>
+        <v>44144</v>
       </c>
       <c r="D41" s="2">
-        <v>9.7222222222222224E-3</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="E41" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G41" t="b">
         <f t="shared" si="0"/>
@@ -3288,22 +3288,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1">
-        <v>44150</v>
+        <v>44144</v>
       </c>
       <c r="D42" s="2">
-        <v>9.7222222222222224E-3</v>
+        <v>0.9</v>
       </c>
       <c r="E42" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G42" t="b">
         <f t="shared" si="0"/>
@@ -3312,22 +3312,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>44149</v>
+        <v>44144</v>
       </c>
       <c r="D43" s="2">
-        <v>0.65625</v>
+        <v>0.9</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>440</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G43" t="b">
         <f t="shared" si="0"/>
@@ -3336,19 +3336,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
         <v>44144</v>
       </c>
       <c r="D44" s="2">
-        <v>0.33958333333333335</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>309</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -3360,19 +3360,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>44144</v>
+        <v>44140</v>
       </c>
       <c r="D45" s="2">
-        <v>0.33958333333333335</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="E45" t="s">
-        <v>418</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -3384,22 +3384,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1">
-        <v>44144</v>
+        <v>44132</v>
       </c>
       <c r="D46" s="2">
-        <v>0.33958333333333335</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G46" t="b">
         <f t="shared" si="0"/>
@@ -3408,22 +3408,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1">
-        <v>44144</v>
+        <v>44132</v>
       </c>
       <c r="D47" s="2">
-        <v>0.33958333333333335</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G47" t="b">
         <f t="shared" si="0"/>
@@ -3432,22 +3432,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1">
-        <v>44144</v>
+        <v>44132</v>
       </c>
       <c r="D48" s="2">
-        <v>0.9</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="E48" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G48" t="b">
         <f t="shared" si="0"/>
@@ -3456,22 +3456,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>44144</v>
+        <v>44131</v>
       </c>
       <c r="D49" s="2">
-        <v>0.9</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="E49" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G49" t="b">
         <f t="shared" si="0"/>
@@ -3480,22 +3480,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1">
-        <v>44144</v>
+        <v>44129</v>
       </c>
       <c r="D50" s="2">
-        <v>0.4236111111111111</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G50" t="b">
         <f t="shared" si="0"/>
@@ -3504,22 +3504,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>44144</v>
+        <v>44129</v>
       </c>
       <c r="D51" s="2">
-        <v>0.4236111111111111</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G51" t="b">
         <f t="shared" si="0"/>
@@ -3528,22 +3528,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1">
-        <v>44140</v>
+        <v>44128</v>
       </c>
       <c r="D52" s="2">
-        <v>0.47638888888888892</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G52" t="b">
         <f t="shared" si="0"/>
@@ -3552,19 +3552,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1">
-        <v>44132</v>
+        <v>44128</v>
       </c>
       <c r="D53" s="2">
-        <v>3.888888888888889E-2</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E53" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
@@ -3576,19 +3576,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C54" s="1">
-        <v>44132</v>
+        <v>44128</v>
       </c>
       <c r="D54" s="2">
-        <v>3.888888888888889E-2</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E54" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F54" t="s">
         <v>26</v>
@@ -3600,19 +3600,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C55" s="1">
-        <v>44132</v>
+        <v>44128</v>
       </c>
       <c r="D55" s="2">
-        <v>3.888888888888889E-2</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E55" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F55" t="s">
         <v>26</v>
@@ -3624,19 +3624,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
-        <v>44131</v>
+        <v>44128</v>
       </c>
       <c r="D56" s="2">
-        <v>0.52986111111111112</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E56" t="s">
-        <v>311</v>
+        <v>465</v>
       </c>
       <c r="F56" t="s">
         <v>26</v>
@@ -3648,19 +3648,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="D57" s="2">
-        <v>0.82500000000000007</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E57" t="s">
-        <v>312</v>
+        <v>465</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
@@ -3672,19 +3672,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="D58" s="2">
-        <v>0.82500000000000007</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E58" t="s">
-        <v>312</v>
+        <v>465</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -3696,331 +3696,331 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="D59" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="E59" t="s">
-        <v>465</v>
+        <v>385</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
       </c>
       <c r="G59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1">
-        <v>44128</v>
+        <v>44124</v>
       </c>
       <c r="D60" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="E60" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G60" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G60:G121" si="1">ISNUMBER(SEARCH("suspects",E60))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
-        <v>44128</v>
+        <v>44124</v>
       </c>
       <c r="D61" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="E61" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G61" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
-        <v>44128</v>
+        <v>44124</v>
       </c>
       <c r="D62" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="E62" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1">
-        <v>44128</v>
+        <v>44124</v>
       </c>
       <c r="D63" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="E63" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G63" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
-        <v>44128</v>
+        <v>44124</v>
       </c>
       <c r="D64" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="E64" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G64" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>44128</v>
+        <v>44119</v>
       </c>
       <c r="D65" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="E65" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G65" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1">
-        <v>44126</v>
+        <v>44119</v>
       </c>
       <c r="D66" s="2">
-        <v>0.36805555555555558</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="E66" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G66" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="D67" s="2">
-        <v>0.89861111111111114</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
       </c>
       <c r="G67" t="b">
-        <f t="shared" ref="G67:G130" si="1">ISNUMBER(SEARCH("suspects",E67))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="D68" s="2">
-        <v>0.89861111111111114</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E68" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
       </c>
       <c r="G68" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="D69" s="2">
-        <v>0.89861111111111114</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E69" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
       </c>
       <c r="G69" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="D70" s="2">
-        <v>0.89861111111111114</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E70" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
       </c>
       <c r="G70" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C71" s="1">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="D71" s="2">
-        <v>0.89861111111111114</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E71" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
       </c>
       <c r="G71" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1">
         <v>44119</v>
       </c>
       <c r="D72" s="2">
-        <v>0.47152777777777777</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E72" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -4032,70 +4032,70 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1">
         <v>44119</v>
       </c>
       <c r="D73" s="2">
-        <v>0.47152777777777777</v>
+        <v>0.45069444444444445</v>
       </c>
       <c r="E73" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
       </c>
       <c r="G73" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="1">
-        <v>44119</v>
+        <v>44116</v>
       </c>
       <c r="D74" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G74" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C75" s="1">
-        <v>44119</v>
+        <v>44112</v>
       </c>
       <c r="D75" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="E75" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G75" t="b">
         <f t="shared" si="1"/>
@@ -4104,22 +4104,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1">
-        <v>44119</v>
+        <v>44103</v>
       </c>
       <c r="D76" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>314</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G76" t="b">
         <f t="shared" si="1"/>
@@ -4128,22 +4128,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C77" s="1">
-        <v>44119</v>
+        <v>44103</v>
       </c>
       <c r="D77" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="E77" t="s">
-        <v>445</v>
+        <v>314</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G77" t="b">
         <f t="shared" si="1"/>
@@ -4152,22 +4152,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1">
-        <v>44119</v>
+        <v>44096</v>
       </c>
       <c r="D78" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E78" t="s">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G78" t="b">
         <f t="shared" si="1"/>
@@ -4176,22 +4176,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1">
-        <v>44119</v>
+        <v>44095</v>
       </c>
       <c r="D79" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="E79" t="s">
-        <v>445</v>
+        <v>316</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G79" t="b">
         <f t="shared" si="1"/>
@@ -4200,70 +4200,70 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1">
-        <v>44119</v>
+        <v>44094</v>
       </c>
       <c r="D80" s="2">
-        <v>0.45069444444444445</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E80" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G80" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1">
-        <v>44116</v>
+        <v>44094</v>
       </c>
       <c r="D81" s="2">
-        <v>0.35833333333333334</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="G81" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C82" s="1">
-        <v>44112</v>
+        <v>44094</v>
       </c>
       <c r="D82" s="2">
-        <v>0.79305555555555562</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="G82" t="b">
         <f t="shared" si="1"/>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C83" s="1">
-        <v>44103</v>
+        <v>44093</v>
       </c>
       <c r="D83" s="2">
-        <v>0.70694444444444438</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="E83" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G83" t="b">
         <f t="shared" si="1"/>
@@ -4296,22 +4296,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C84" s="1">
-        <v>44103</v>
+        <v>44087</v>
       </c>
       <c r="D84" s="2">
-        <v>0.70694444444444438</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E84" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G84" t="b">
         <f t="shared" si="1"/>
@@ -4320,22 +4320,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C85" s="1">
-        <v>44096</v>
+        <v>44087</v>
       </c>
       <c r="D85" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>424</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G85" t="b">
         <f t="shared" si="1"/>
@@ -4344,22 +4344,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C86" s="1">
-        <v>44095</v>
+        <v>44087</v>
       </c>
       <c r="D86" s="2">
-        <v>0.38055555555555554</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G86" t="b">
         <f t="shared" si="1"/>
@@ -4368,22 +4368,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C87" s="1">
-        <v>44094</v>
+        <v>44087</v>
       </c>
       <c r="D87" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E87" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G87" t="b">
         <f t="shared" si="1"/>
@@ -4392,22 +4392,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C88" s="1">
-        <v>44094</v>
+        <v>44087</v>
       </c>
       <c r="D88" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E88" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G88" t="b">
         <f t="shared" si="1"/>
@@ -4416,22 +4416,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C89" s="1">
-        <v>44094</v>
+        <v>44082</v>
       </c>
       <c r="D89" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>0.84861111111111109</v>
       </c>
       <c r="E89" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G89" t="b">
         <f t="shared" si="1"/>
@@ -4440,22 +4440,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1">
-        <v>44093</v>
+        <v>44078</v>
       </c>
       <c r="D90" s="2">
-        <v>0.99305555555555547</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G90" t="b">
         <f t="shared" si="1"/>
@@ -4464,118 +4464,118 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C91" s="1">
-        <v>44093</v>
+        <v>44070</v>
       </c>
       <c r="D91" s="2">
-        <v>0.99305555555555547</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G91" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C92" s="1">
-        <v>44087</v>
+        <v>44070</v>
       </c>
       <c r="D92" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="E92" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G92" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1">
-        <v>44087</v>
+        <v>44070</v>
       </c>
       <c r="D93" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="E93" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G93" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C94" s="1">
-        <v>44087</v>
+        <v>44070</v>
       </c>
       <c r="D94" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="E94" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G94" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C95" s="1">
-        <v>44087</v>
+        <v>44070</v>
       </c>
       <c r="D95" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="E95" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G95" t="b">
         <f t="shared" si="1"/>
@@ -4584,22 +4584,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C96" s="1">
-        <v>44087</v>
+        <v>44044</v>
       </c>
       <c r="D96" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.9819444444444444</v>
       </c>
       <c r="E96" t="s">
-        <v>424</v>
+        <v>321</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G96" t="b">
         <f t="shared" si="1"/>
@@ -4608,22 +4608,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1">
-        <v>44082</v>
+        <v>44043</v>
       </c>
       <c r="D97" s="2">
-        <v>0.84861111111111109</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E97" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G97" t="b">
         <f t="shared" si="1"/>
@@ -4632,22 +4632,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C98" s="1">
-        <v>44078</v>
+        <v>44040</v>
       </c>
       <c r="D98" s="2">
-        <v>0.92361111111111116</v>
+        <v>0.88611111111111107</v>
       </c>
       <c r="E98" t="s">
-        <v>319</v>
+        <v>430</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G98" t="b">
         <f t="shared" si="1"/>
@@ -4656,142 +4656,142 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C99" s="1">
-        <v>44070</v>
+        <v>44040</v>
       </c>
       <c r="D99" s="2">
-        <v>0.7104166666666667</v>
+        <v>0.88611111111111107</v>
       </c>
       <c r="E99" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G99" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1">
-        <v>44070</v>
+        <v>44040</v>
       </c>
       <c r="D100" s="2">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="E100" t="s">
-        <v>451</v>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G100" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C101" s="1">
-        <v>44070</v>
+        <v>44040</v>
       </c>
       <c r="D101" s="2">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="E101" t="s">
-        <v>451</v>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G101" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C102" s="1">
-        <v>44070</v>
+        <v>44040</v>
       </c>
       <c r="D102" s="2">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="E102" t="s">
-        <v>451</v>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="F102" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G102" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C103" s="1">
-        <v>44070</v>
+        <v>44040</v>
       </c>
       <c r="D103" s="2">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="E103" t="s">
-        <v>320</v>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="F103" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G103" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1">
-        <v>44044</v>
+        <v>44040</v>
       </c>
       <c r="D104" s="2">
-        <v>0.9819444444444444</v>
-      </c>
-      <c r="E104" t="s">
-        <v>321</v>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G104" t="b">
         <f t="shared" si="1"/>
@@ -4800,22 +4800,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C105" s="1">
-        <v>44043</v>
+        <v>44038</v>
       </c>
       <c r="D105" s="2">
-        <v>0.57777777777777783</v>
+        <v>9.6527777777777768E-2</v>
       </c>
       <c r="E105" t="s">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G105" t="b">
         <f t="shared" si="1"/>
@@ -4824,19 +4824,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="C106" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="D106" s="2">
-        <v>0.88611111111111107</v>
+        <v>9.6527777777777768E-2</v>
       </c>
       <c r="E106" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F106" t="s">
         <v>98</v>
@@ -4848,19 +4848,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="C107" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="D107" s="2">
-        <v>0.88611111111111107</v>
+        <v>9.6527777777777768E-2</v>
       </c>
       <c r="E107" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F107" t="s">
         <v>98</v>
@@ -4870,21 +4870,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="D108" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>433</v>
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>420</v>
       </c>
       <c r="F108" t="s">
         <v>98</v>
@@ -4894,21 +4894,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="D109" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>433</v>
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>420</v>
       </c>
       <c r="F109" t="s">
         <v>98</v>
@@ -4918,21 +4918,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C110" s="1">
-        <v>44040</v>
+        <v>44037</v>
       </c>
       <c r="D110" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>433</v>
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="E110" t="s">
+        <v>439</v>
       </c>
       <c r="F110" t="s">
         <v>98</v>
@@ -4942,21 +4942,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1">
-        <v>44040</v>
+        <v>44037</v>
       </c>
       <c r="D111" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>433</v>
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="E111" t="s">
+        <v>439</v>
       </c>
       <c r="F111" t="s">
         <v>98</v>
@@ -4966,21 +4966,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>228</v>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>20072400983</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C112" s="1">
-        <v>44040</v>
+        <v>44036</v>
       </c>
       <c r="D112" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>433</v>
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E112" t="s">
+        <v>446</v>
       </c>
       <c r="F112" t="s">
         <v>98</v>
@@ -4992,19 +4992,19 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C113" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="D113" s="2">
-        <v>9.6527777777777768E-2</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="E113" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
       <c r="F113" t="s">
         <v>98</v>
@@ -5016,46 +5016,46 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C114" s="1">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D114" s="2">
-        <v>9.6527777777777768E-2</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="E114" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="F114" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G114" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C115" s="1">
-        <v>44038</v>
+        <v>44023</v>
       </c>
       <c r="D115" s="2">
-        <v>9.6527777777777768E-2</v>
+        <v>0.11388888888888889</v>
       </c>
       <c r="E115" t="s">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="F115" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G115" t="b">
         <f t="shared" si="1"/>
@@ -5064,22 +5064,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1">
-        <v>44038</v>
+        <v>44019</v>
       </c>
       <c r="D116" s="2">
-        <v>9.6527777777777768E-2</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="E116" t="s">
-        <v>420</v>
+        <v>325</v>
       </c>
       <c r="F116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G116" t="b">
         <f t="shared" si="1"/>
@@ -5088,22 +5088,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C117" s="1">
-        <v>44038</v>
+        <v>44013</v>
       </c>
       <c r="D117" s="2">
-        <v>9.6527777777777768E-2</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="E117" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="F117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G117" t="b">
         <f t="shared" si="1"/>
@@ -5112,22 +5112,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C118" s="1">
-        <v>44037</v>
+        <v>44010</v>
       </c>
       <c r="D118" s="2">
-        <v>0.62083333333333335</v>
+        <v>3.4027777777777775E-2</v>
       </c>
       <c r="E118" t="s">
-        <v>439</v>
+        <v>327</v>
       </c>
       <c r="F118" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G118" t="b">
         <f t="shared" si="1"/>
@@ -5136,22 +5136,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C119" s="1">
-        <v>44037</v>
+        <v>44000</v>
       </c>
       <c r="D119" s="2">
-        <v>0.62083333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E119" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="F119" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G119" t="b">
         <f t="shared" si="1"/>
@@ -5159,23 +5159,23 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
-        <v>20072400983</v>
+      <c r="A120" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B120" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1">
-        <v>44036</v>
+        <v>43994</v>
       </c>
       <c r="D120" s="2">
-        <v>0.86458333333333337</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="E120" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F120" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G120" t="b">
         <f t="shared" si="1"/>
@@ -5184,22 +5184,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C121" s="1">
-        <v>44036</v>
+        <v>43994</v>
       </c>
       <c r="D121" s="2">
-        <v>0.78263888888888899</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="E121" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="F121" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G121" t="b">
         <f t="shared" si="1"/>
@@ -5208,262 +5208,262 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1">
-        <v>44033</v>
+        <v>43989</v>
       </c>
       <c r="D122" s="2">
-        <v>0.76736111111111116</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="E122" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="F122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G122" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G122:G174" si="2">ISNUMBER(SEARCH("suspects",E122))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C123" s="1">
-        <v>44023</v>
+        <v>43989</v>
       </c>
       <c r="D123" s="2">
-        <v>0.11388888888888889</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="E123" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F123" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G123" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C124" s="1">
-        <v>44019</v>
+        <v>43984</v>
       </c>
       <c r="D124" s="2">
-        <v>0.7270833333333333</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="F124" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G124" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="D125" s="2">
-        <v>0.27291666666666664</v>
+        <v>7.013888888888889E-2</v>
       </c>
       <c r="E125" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F125" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G125" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="C126" s="1">
-        <v>44010</v>
+        <v>43975</v>
       </c>
       <c r="D126" s="2">
-        <v>3.4027777777777775E-2</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E126" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="F126" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G126" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="C127" s="1">
-        <v>44000</v>
+        <v>43975</v>
       </c>
       <c r="D127" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E127" t="s">
-        <v>328</v>
+        <v>452</v>
       </c>
       <c r="F127" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G127" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C128" s="1">
-        <v>44000</v>
+        <v>43975</v>
       </c>
       <c r="D128" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E128" t="s">
-        <v>328</v>
+        <v>452</v>
       </c>
       <c r="F128" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G128" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C129" s="1">
-        <v>43994</v>
+        <v>43975</v>
       </c>
       <c r="D129" s="2">
-        <v>9.1666666666666674E-2</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E129" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F129" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G129" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1">
-        <v>43994</v>
+        <v>43965</v>
       </c>
       <c r="D130" s="2">
-        <v>9.1666666666666674E-2</v>
+        <v>0.70416666666666661</v>
       </c>
       <c r="E130" t="s">
-        <v>460</v>
+        <v>332</v>
       </c>
       <c r="F130" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G130" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C131" s="1">
-        <v>43989</v>
+        <v>43953</v>
       </c>
       <c r="D131" s="2">
-        <v>0.28263888888888888</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E131" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="F131" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G131" t="b">
-        <f t="shared" ref="G131:G194" si="2">ISNUMBER(SEARCH("suspects",E131))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C132" s="1">
-        <v>43989</v>
+        <v>43953</v>
       </c>
       <c r="D132" s="2">
-        <v>0.28263888888888888</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E132" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="F132" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G132" t="b">
         <f t="shared" si="2"/>
@@ -5472,22 +5472,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C133" s="1">
-        <v>43989</v>
+        <v>43953</v>
       </c>
       <c r="D133" s="2">
-        <v>0.78402777777777777</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E133" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="F133" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G133" t="b">
         <f t="shared" si="2"/>
@@ -5496,46 +5496,46 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C134" s="1">
-        <v>43984</v>
+        <v>43952</v>
       </c>
       <c r="D134" s="2">
-        <v>0.75694444444444453</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="E134" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="F134" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G134" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C135" s="1">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="D135" s="2">
-        <v>7.013888888888889E-2</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="E135" t="s">
-        <v>331</v>
+        <v>438</v>
       </c>
       <c r="F135" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G135" t="b">
         <f t="shared" si="2"/>
@@ -5544,22 +5544,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C136" s="1">
-        <v>43983</v>
+        <v>43951</v>
       </c>
       <c r="D136" s="2">
-        <v>7.013888888888889E-2</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="E136" t="s">
-        <v>331</v>
+        <v>421</v>
       </c>
       <c r="F136" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G136" t="b">
         <f t="shared" si="2"/>
@@ -5568,22 +5568,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C137" s="1">
-        <v>43975</v>
+        <v>43951</v>
       </c>
       <c r="D137" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="E137" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="F137" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G137" t="b">
         <f t="shared" si="2"/>
@@ -5592,22 +5592,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="C138" s="1">
-        <v>43975</v>
+        <v>43944</v>
       </c>
       <c r="D138" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.8847222222222223</v>
       </c>
       <c r="E138" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F138" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G138" t="b">
         <f t="shared" si="2"/>
@@ -5616,22 +5616,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C139" s="1">
-        <v>43975</v>
+        <v>43944</v>
       </c>
       <c r="D139" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.8847222222222223</v>
       </c>
       <c r="E139" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F139" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G139" t="b">
         <f t="shared" si="2"/>
@@ -5640,22 +5640,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B140" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C140" s="1">
-        <v>43975</v>
+        <v>43944</v>
       </c>
       <c r="D140" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.8847222222222223</v>
       </c>
       <c r="E140" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F140" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G140" t="b">
         <f t="shared" si="2"/>
@@ -5664,22 +5664,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C141" s="1">
-        <v>43965</v>
+        <v>43944</v>
       </c>
       <c r="D141" s="2">
-        <v>0.70416666666666661</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E141" t="s">
-        <v>332</v>
+        <v>462</v>
       </c>
       <c r="F141" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G141" t="b">
         <f t="shared" si="2"/>
@@ -5688,22 +5688,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C142" s="1">
-        <v>43953</v>
+        <v>43944</v>
       </c>
       <c r="D142" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E142" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="F142" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G142" t="b">
         <f t="shared" si="2"/>
@@ -5712,22 +5712,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B143" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="C143" s="1">
-        <v>43953</v>
+        <v>43944</v>
       </c>
       <c r="D143" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E143" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="F143" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G143" t="b">
         <f t="shared" si="2"/>
@@ -5736,22 +5736,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C144" s="1">
-        <v>43953</v>
+        <v>43944</v>
       </c>
       <c r="D144" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E144" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="F144" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G144" t="b">
         <f t="shared" si="2"/>
@@ -5760,22 +5760,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C145" s="1">
-        <v>43952</v>
+        <v>43921</v>
       </c>
       <c r="D145" s="2">
-        <v>0.34166666666666662</v>
+        <v>0.73125000000000007</v>
       </c>
       <c r="E145" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F145" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G145" t="b">
         <f t="shared" si="2"/>
@@ -5784,22 +5784,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C146" s="1">
-        <v>43952</v>
+        <v>43921</v>
       </c>
       <c r="D146" s="2">
-        <v>0.34166666666666662</v>
+        <v>0.73125000000000007</v>
       </c>
       <c r="E146" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F146" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G146" t="b">
         <f t="shared" si="2"/>
@@ -5808,22 +5808,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B147" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="C147" s="1">
-        <v>43951</v>
+        <v>43920</v>
       </c>
       <c r="D147" s="2">
-        <v>0.65069444444444446</v>
+        <v>0.11527777777777777</v>
       </c>
       <c r="E147" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F147" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G147" t="b">
         <f t="shared" si="2"/>
@@ -5832,22 +5832,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C148" s="1">
-        <v>43951</v>
+        <v>43920</v>
       </c>
       <c r="D148" s="2">
-        <v>0.65069444444444446</v>
+        <v>0.11527777777777777</v>
       </c>
       <c r="E148" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F148" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G148" t="b">
         <f t="shared" si="2"/>
@@ -5856,22 +5856,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C149" s="1">
-        <v>43944</v>
+        <v>43920</v>
       </c>
       <c r="D149" s="2">
-        <v>0.8847222222222223</v>
+        <v>0.11527777777777777</v>
       </c>
       <c r="E149" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="F149" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G149" t="b">
         <f t="shared" si="2"/>
@@ -5880,22 +5880,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C150" s="1">
-        <v>43944</v>
+        <v>43918</v>
       </c>
       <c r="D150" s="2">
-        <v>0.8847222222222223</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="E150" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F150" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G150" t="b">
         <f t="shared" si="2"/>
@@ -5904,22 +5904,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C151" s="1">
-        <v>43944</v>
+        <v>43918</v>
       </c>
       <c r="D151" s="2">
-        <v>0.8847222222222223</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="E151" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F151" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G151" t="b">
         <f t="shared" si="2"/>
@@ -5928,22 +5928,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C152" s="1">
-        <v>43944</v>
+        <v>43918</v>
       </c>
       <c r="D152" s="2">
-        <v>0.8847222222222223</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="E152" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F152" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G152" t="b">
         <f t="shared" si="2"/>
@@ -5952,22 +5952,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C153" s="1">
-        <v>43944</v>
+        <v>43918</v>
       </c>
       <c r="D153" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="E153" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F153" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G153" t="b">
         <f t="shared" si="2"/>
@@ -5976,22 +5976,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C154" s="1">
-        <v>43944</v>
+        <v>43918</v>
       </c>
       <c r="D154" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="E154" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F154" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G154" t="b">
         <f t="shared" si="2"/>
@@ -6000,22 +6000,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C155" s="1">
-        <v>43944</v>
+        <v>43913</v>
       </c>
       <c r="D155" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E155" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="F155" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G155" t="b">
         <f t="shared" si="2"/>
@@ -6024,22 +6024,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B156" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C156" s="1">
-        <v>43944</v>
+        <v>43913</v>
       </c>
       <c r="D156" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E156" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="F156" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G156" t="b">
         <f t="shared" si="2"/>
@@ -6048,22 +6048,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C157" s="1">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="D157" s="2">
-        <v>0.73125000000000007</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="E157" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="F157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G157" t="b">
         <f t="shared" si="2"/>
@@ -6072,22 +6072,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C158" s="1">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="D158" s="2">
-        <v>0.73125000000000007</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="E158" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="F158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G158" t="b">
         <f t="shared" si="2"/>
@@ -6096,22 +6096,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C159" s="1">
-        <v>43921</v>
+        <v>43910</v>
       </c>
       <c r="D159" s="2">
-        <v>0.73125000000000007</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="E159" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="F159" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G159" t="b">
         <f t="shared" si="2"/>
@@ -6120,22 +6120,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C160" s="1">
-        <v>43920</v>
+        <v>43910</v>
       </c>
       <c r="D160" s="2">
-        <v>0.11527777777777777</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="E160" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="F160" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G160" t="b">
         <f t="shared" si="2"/>
@@ -6144,22 +6144,22 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" s="1">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D161" s="2">
-        <v>0.11527777777777777</v>
+        <v>0.34375</v>
       </c>
       <c r="E161" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="F161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G161" t="b">
         <f t="shared" si="2"/>
@@ -6168,22 +6168,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C162" s="1">
-        <v>43920</v>
+        <v>43907</v>
       </c>
       <c r="D162" s="2">
-        <v>0.11527777777777777</v>
+        <v>0.91319444444444453</v>
       </c>
       <c r="E162" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="F162" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G162" t="b">
         <f t="shared" si="2"/>
@@ -6192,22 +6192,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C163" s="1">
-        <v>43918</v>
+        <v>43907</v>
       </c>
       <c r="D163" s="2">
-        <v>0.7944444444444444</v>
+        <v>0.91319444444444453</v>
       </c>
       <c r="E163" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F163" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G163" t="b">
         <f t="shared" si="2"/>
@@ -6216,22 +6216,22 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C164" s="1">
-        <v>43918</v>
+        <v>43907</v>
       </c>
       <c r="D164" s="2">
-        <v>0.7944444444444444</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="E164" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="F164" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G164" t="b">
         <f t="shared" si="2"/>
@@ -6240,22 +6240,22 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B165" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C165" s="1">
-        <v>43918</v>
+        <v>43906</v>
       </c>
       <c r="D165" s="2">
-        <v>0.7944444444444444</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="E165" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="F165" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G165" t="b">
         <f t="shared" si="2"/>
@@ -6264,22 +6264,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C166" s="1">
-        <v>43918</v>
+        <v>43906</v>
       </c>
       <c r="D166" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="E166" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="F166" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G166" t="b">
         <f t="shared" si="2"/>
@@ -6288,22 +6288,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C167" s="1">
-        <v>43918</v>
+        <v>43906</v>
       </c>
       <c r="D167" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="E167" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F167" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G167" t="b">
         <f t="shared" si="2"/>
@@ -6312,22 +6312,22 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C168" s="1">
-        <v>43918</v>
+        <v>43906</v>
       </c>
       <c r="D168" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="E168" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F168" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G168" t="b">
         <f t="shared" si="2"/>
@@ -6336,22 +6336,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B169" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C169" s="1">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="D169" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="E169" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="F169" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G169" t="b">
         <f t="shared" si="2"/>
@@ -6360,22 +6360,22 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>71</v>
       </c>
       <c r="C170" s="1">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="D170" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="E170" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="F170" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G170" t="b">
         <f t="shared" si="2"/>
@@ -6384,22 +6384,22 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C171" s="1">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="D171" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="E171" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="F171" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G171" t="b">
         <f t="shared" si="2"/>
@@ -6408,22 +6408,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B172" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C172" s="1">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="D172" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E172" t="s">
-        <v>464</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G172" t="b">
         <f t="shared" si="2"/>
@@ -6432,22 +6432,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C173" s="1">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="D173" s="2">
-        <v>0.63402777777777775</v>
+        <v>3.1944444444444449E-2</v>
       </c>
       <c r="E173" t="s">
-        <v>464</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G173" t="b">
         <f t="shared" si="2"/>
@@ -6456,22 +6456,22 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C174" s="1">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="D174" s="2">
-        <v>0.15555555555555556</v>
+        <v>0.23472222222222219</v>
       </c>
       <c r="E174" t="s">
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G174" t="b">
         <f t="shared" si="2"/>
@@ -6480,526 +6480,526 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B175" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C175" s="1">
-        <v>43910</v>
+        <v>43902</v>
       </c>
       <c r="D175" s="2">
-        <v>0.15555555555555556</v>
+        <v>0.69166666666666676</v>
       </c>
       <c r="E175" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="F175" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G175" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G175:G236" si="3">ISNUMBER(SEARCH("suspects",E175))</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C176" s="1">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="D176" s="2">
-        <v>0.34375</v>
+        <v>0.69166666666666676</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>453</v>
       </c>
       <c r="F176" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G176" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C177" s="1">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="D177" s="2">
-        <v>0.34375</v>
+        <v>0.69166666666666676</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>453</v>
       </c>
       <c r="F177" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G177" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>267</v>
+      <c r="A178" s="3">
+        <v>20031200060</v>
       </c>
       <c r="B178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C178" s="1">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="D178" s="2">
-        <v>0.91319444444444453</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="E178" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="F178" t="s">
         <v>72</v>
       </c>
       <c r="G178" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>267</v>
+      <c r="A179" s="3">
+        <v>20031200060</v>
       </c>
       <c r="B179" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C179" s="1">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="D179" s="2">
-        <v>0.91319444444444453</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="E179" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="F179" t="s">
         <v>72</v>
       </c>
       <c r="G179" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C180" s="1">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="D180" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.81111111111111101</v>
       </c>
       <c r="E180" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
         <v>72</v>
       </c>
       <c r="G180" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C181" s="1">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="D181" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.67638888888888893</v>
       </c>
       <c r="E181" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
         <v>72</v>
       </c>
       <c r="G181" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C182" s="1">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="D182" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="E182" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F182" t="s">
         <v>72</v>
       </c>
       <c r="G182" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C183" s="1">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="D183" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="E183" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F183" t="s">
         <v>72</v>
       </c>
       <c r="G183" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B184" t="s">
         <v>21</v>
       </c>
       <c r="C184" s="1">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="D184" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="E184" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F184" t="s">
         <v>72</v>
       </c>
       <c r="G184" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B185" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C185" s="1">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="D185" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="E185" t="s">
-        <v>444</v>
+        <v>340</v>
       </c>
       <c r="F185" t="s">
         <v>72</v>
       </c>
       <c r="G185" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C186" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D186" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E186" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F186" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G186" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C187" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D187" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E187" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F187" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G187" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C188" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D188" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E188" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F188" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G188" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C189" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D189" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E189" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F189" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G189" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="C190" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D190" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E190" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F190" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G190" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B191" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C191" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D191" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E191" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F191" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G191" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C192" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D192" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E192" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="F192" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G192" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C193" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="D193" s="2">
-        <v>3.1944444444444449E-2</v>
+        <v>0.96597222222222223</v>
       </c>
       <c r="E193" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F193" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G193" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B194" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C194" s="1">
-        <v>43905</v>
+        <v>43898</v>
       </c>
       <c r="D194" s="2">
-        <v>0.23472222222222219</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="E194" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F194" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G194" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C195" s="1">
-        <v>43902</v>
+        <v>43896</v>
       </c>
       <c r="D195" s="2">
-        <v>0.69166666666666676</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="E195" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="F195" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G195" t="b">
-        <f t="shared" ref="G195:G258" si="3">ISNUMBER(SEARCH("suspects",E195))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B196" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C196" s="1">
-        <v>43902</v>
+        <v>43895</v>
       </c>
       <c r="D196" s="2">
-        <v>0.69166666666666676</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="E196" t="s">
-        <v>453</v>
+        <v>344</v>
       </c>
       <c r="F196" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G196" t="b">
         <f t="shared" si="3"/>
@@ -7008,22 +7008,22 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C197" s="1">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="D197" s="2">
-        <v>0.69166666666666676</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="E197" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="F197" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G197" t="b">
         <f t="shared" si="3"/>
@@ -7031,47 +7031,47 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="3">
-        <v>20031200060</v>
+      <c r="A198" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C198" s="1">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="D198" s="2">
-        <v>0.56874999999999998</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E198" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="F198" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G198" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
-        <v>20031200060</v>
+      <c r="A199" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B199" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C199" s="1">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="D199" s="2">
-        <v>0.56874999999999998</v>
+        <v>0.39513888888888887</v>
       </c>
       <c r="E199" t="s">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="F199" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G199" t="b">
         <f t="shared" si="3"/>
@@ -7080,22 +7080,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C200" s="1">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="D200" s="2">
-        <v>0.81111111111111101</v>
+        <v>0.72152777777777777</v>
       </c>
       <c r="E200" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F200" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G200" t="b">
         <f t="shared" si="3"/>
@@ -7104,22 +7104,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C201" s="1">
-        <v>43902</v>
+        <v>43893</v>
       </c>
       <c r="D201" s="2">
-        <v>0.67638888888888893</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E201" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F201" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G201" t="b">
         <f t="shared" si="3"/>
@@ -7128,22 +7128,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C202" s="1">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="D202" s="2">
-        <v>0.19375000000000001</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E202" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="F202" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G202" t="b">
         <f t="shared" si="3"/>
@@ -7152,22 +7152,22 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C203" s="1">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="D203" s="2">
-        <v>0.19375000000000001</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="E203" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="F203" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G203" t="b">
         <f t="shared" si="3"/>
@@ -7176,22 +7176,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B204" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C204" s="1">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="D204" s="2">
-        <v>0.19375000000000001</v>
+        <v>0.79583333333333339</v>
       </c>
       <c r="E204" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="F204" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G204" t="b">
         <f t="shared" si="3"/>
@@ -7200,22 +7200,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B205" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C205" s="1">
-        <v>43901</v>
+        <v>43892</v>
       </c>
       <c r="D205" s="2">
-        <v>0.19375000000000001</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E205" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="F205" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G205" t="b">
         <f t="shared" si="3"/>
@@ -7224,22 +7224,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B206" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C206" s="1">
-        <v>43901</v>
+        <v>43892</v>
       </c>
       <c r="D206" s="2">
-        <v>0.19375000000000001</v>
+        <v>0.8125</v>
       </c>
       <c r="E206" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="F206" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G206" t="b">
         <f t="shared" si="3"/>
@@ -7247,47 +7247,47 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
-        <v>257</v>
+      <c r="A207" s="3">
+        <v>20028000534</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C207" s="1">
-        <v>43901</v>
+        <v>43889</v>
       </c>
       <c r="D207" s="2">
-        <v>0.73611111111111116</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="E207" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G207" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C208" s="1">
-        <v>43900</v>
+        <v>43888</v>
       </c>
       <c r="D208" s="2">
-        <v>0.81458333333333333</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="E208" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="F208" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G208" t="b">
         <f t="shared" si="3"/>
@@ -7296,118 +7296,118 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C209" s="1">
-        <v>43900</v>
+        <v>43887</v>
       </c>
       <c r="D209" s="2">
-        <v>0.81458333333333333</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="E209" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F209" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G209" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C210" s="1">
-        <v>43900</v>
+        <v>43887</v>
       </c>
       <c r="D210" s="2">
-        <v>0.81458333333333333</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="E210" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F210" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G210" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C211" s="1">
-        <v>43900</v>
+        <v>43887</v>
       </c>
       <c r="D211" s="2">
-        <v>0.81458333333333333</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="E211" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F211" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G211" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C212" s="1">
-        <v>43900</v>
+        <v>43887</v>
       </c>
       <c r="D212" s="2">
-        <v>0.81458333333333333</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="E212" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F212" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G212" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C213" s="1">
-        <v>43900</v>
+        <v>43887</v>
       </c>
       <c r="D213" s="2">
-        <v>0.81458333333333333</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E213" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="F213" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G213" t="b">
         <f t="shared" si="3"/>
@@ -7416,22 +7416,22 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="B214" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C214" s="1">
-        <v>43900</v>
+        <v>43886</v>
       </c>
       <c r="D214" s="2">
-        <v>0.81458333333333333</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="E214" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="F214" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G214" t="b">
         <f t="shared" si="3"/>
@@ -7440,22 +7440,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="B215" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C215" s="1">
-        <v>43900</v>
+        <v>43886</v>
       </c>
       <c r="D215" s="2">
-        <v>0.96597222222222223</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="E215" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="F215" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G215" t="b">
         <f t="shared" si="3"/>
@@ -7464,22 +7464,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="B216" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C216" s="1">
-        <v>43898</v>
+        <v>43886</v>
       </c>
       <c r="D216" s="2">
-        <v>0.76250000000000007</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="E216" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="F216" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G216" t="b">
         <f t="shared" si="3"/>
@@ -7488,22 +7488,22 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C217" s="1">
-        <v>43896</v>
+        <v>43886</v>
       </c>
       <c r="D217" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="E217" t="s">
-        <v>343</v>
+        <v>463</v>
       </c>
       <c r="F217" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G217" t="b">
         <f t="shared" si="3"/>
@@ -7512,22 +7512,22 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B218" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C218" s="1">
-        <v>43895</v>
+        <v>43886</v>
       </c>
       <c r="D218" s="2">
-        <v>8.8888888888888892E-2</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="E218" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="F218" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G218" t="b">
         <f t="shared" si="3"/>
@@ -7536,22 +7536,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="B219" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C219" s="1">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="D219" s="2">
-        <v>0.37222222222222223</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="E219" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="F219" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G219" t="b">
         <f t="shared" si="3"/>
@@ -7560,46 +7560,46 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B220" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C220" s="1">
-        <v>43894</v>
+        <v>43885</v>
       </c>
       <c r="D220" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="E220" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G220" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="B221" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C221" s="1">
-        <v>43894</v>
+        <v>43885</v>
       </c>
       <c r="D221" s="2">
-        <v>0.39513888888888887</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="E221" t="s">
-        <v>346</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G221" t="b">
         <f t="shared" si="3"/>
@@ -7608,46 +7608,46 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" s="1">
-        <v>43894</v>
+        <v>43885</v>
       </c>
       <c r="D222" s="2">
-        <v>0.72152777777777777</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="E222" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="F222" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G222" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C223" s="1">
-        <v>43893</v>
+        <v>43885</v>
       </c>
       <c r="D223" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.64513888888888882</v>
       </c>
       <c r="E223" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F223" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G223" t="b">
         <f t="shared" si="3"/>
@@ -7656,22 +7656,22 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="C224" s="1">
-        <v>43893</v>
+        <v>43882</v>
       </c>
       <c r="D224" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E224" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F224" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G224" t="b">
         <f t="shared" si="3"/>
@@ -7680,22 +7680,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B225" t="s">
         <v>117</v>
       </c>
       <c r="C225" s="1">
-        <v>43893</v>
+        <v>43881</v>
       </c>
       <c r="D225" s="2">
-        <v>0.62916666666666665</v>
+        <v>0.83958333333333324</v>
       </c>
       <c r="E225" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F225" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G225" t="b">
         <f t="shared" si="3"/>
@@ -7703,23 +7703,23 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
-        <v>247</v>
+      <c r="A226" s="3">
+        <v>20021900439</v>
       </c>
       <c r="B226" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="C226" s="1">
-        <v>43893</v>
+        <v>43880</v>
       </c>
       <c r="D226" s="2">
-        <v>0.79583333333333339</v>
+        <v>7.1527777777777787E-2</v>
       </c>
       <c r="E226" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F226" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G226" t="b">
         <f t="shared" si="3"/>
@@ -7728,22 +7728,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>117</v>
       </c>
       <c r="C227" s="1">
-        <v>43892</v>
+        <v>43880</v>
       </c>
       <c r="D227" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.74583333333333324</v>
       </c>
       <c r="E227" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F227" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G227" t="b">
         <f t="shared" si="3"/>
@@ -7752,22 +7752,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C228" s="1">
-        <v>43892</v>
+        <v>43879</v>
       </c>
       <c r="D228" s="2">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="E228" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F228" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G228" t="b">
         <f t="shared" si="3"/>
@@ -7775,47 +7775,47 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="3">
-        <v>20028000534</v>
+      <c r="A229" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C229" s="1">
-        <v>43889</v>
+        <v>43878</v>
       </c>
       <c r="D229" s="2">
-        <v>0.37847222222222227</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E229" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G229" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B230" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C230" s="1">
-        <v>43888</v>
+        <v>43878</v>
       </c>
       <c r="D230" s="2">
-        <v>0.42430555555555555</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E230" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="F230" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G230" t="b">
         <f t="shared" si="3"/>
@@ -7824,142 +7824,142 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B231" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C231" s="1">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="D231" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E231" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="F231" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G231" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C232" s="1">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="D232" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E232" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="F232" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G232" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B233" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C233" s="1">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="D233" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E233" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="F233" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G233" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B234" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="C234" s="1">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="D234" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E234" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="F234" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G234" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C235" s="1">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="D235" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="E235" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="F235" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G235" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B236" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C236" s="1">
-        <v>43886</v>
+        <v>43876</v>
       </c>
       <c r="D236" s="2">
-        <v>0.6791666666666667</v>
+        <v>0.79236111111111107</v>
       </c>
       <c r="E236" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="F236" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G236" t="b">
         <f t="shared" si="3"/>
@@ -7968,574 +7968,574 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B237" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C237" s="1">
-        <v>43886</v>
+        <v>43876</v>
       </c>
       <c r="D237" s="2">
-        <v>0.6791666666666667</v>
+        <v>0.79236111111111107</v>
       </c>
       <c r="E237" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="F237" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G237" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G237:G297" si="4">ISNUMBER(SEARCH("suspects",E237))</f>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B238" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C238" s="1">
-        <v>43886</v>
+        <v>43875</v>
       </c>
       <c r="D238" s="2">
-        <v>0.6791666666666667</v>
+        <v>0.36041666666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="F238" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G238" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C239" s="1">
-        <v>43886</v>
+        <v>43873</v>
       </c>
       <c r="D239" s="2">
-        <v>0.92986111111111114</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="F239" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G239" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B240" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C240" s="1">
-        <v>43886</v>
+        <v>43873</v>
       </c>
       <c r="D240" s="2">
-        <v>0.92986111111111114</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="F240" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G240" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B241" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C241" s="1">
-        <v>43886</v>
+        <v>43873</v>
       </c>
       <c r="D241" s="2">
-        <v>0.92986111111111114</v>
+        <v>0.64097222222222217</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="F241" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G241" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B242" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C242" s="1">
-        <v>43885</v>
+        <v>43873</v>
       </c>
       <c r="D242" s="2">
-        <v>0.93125000000000002</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="E242" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="F242" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G242" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="C243" s="1">
-        <v>43885</v>
+        <v>43872</v>
       </c>
       <c r="D243" s="2">
-        <v>0.93125000000000002</v>
+        <v>0.8569444444444444</v>
       </c>
       <c r="E243" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="F243" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G243" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C244" s="1">
-        <v>43885</v>
+        <v>43872</v>
       </c>
       <c r="D244" s="2">
-        <v>0.44375000000000003</v>
+        <v>0.8569444444444444</v>
       </c>
       <c r="E244" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F244" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G244" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C245" s="1">
-        <v>43885</v>
+        <v>43872</v>
       </c>
       <c r="D245" s="2">
-        <v>0.64513888888888882</v>
+        <v>0.8569444444444444</v>
       </c>
       <c r="E245" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="F245" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G245" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C246" s="1">
-        <v>43882</v>
+        <v>43872</v>
       </c>
       <c r="D246" s="2">
-        <v>0.5083333333333333</v>
+        <v>0.90416666666666667</v>
       </c>
       <c r="E246" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
       <c r="F246" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G246" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B247" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="C247" s="1">
-        <v>43881</v>
+        <v>43872</v>
       </c>
       <c r="D247" s="2">
-        <v>0.83958333333333324</v>
+        <v>0.90416666666666667</v>
       </c>
       <c r="E247" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G247" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="3">
-        <v>20021900439</v>
+      <c r="A248" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C248" s="1">
-        <v>43880</v>
+        <v>43871</v>
       </c>
       <c r="D248" s="2">
-        <v>7.1527777777777787E-2</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="E248" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="F248" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G248" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C249" s="1">
-        <v>43880</v>
+        <v>43871</v>
       </c>
       <c r="D249" s="2">
-        <v>0.74583333333333324</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="E249" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="F249" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G249" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C250" s="1">
-        <v>43879</v>
+        <v>43871</v>
       </c>
       <c r="D250" s="2">
-        <v>0.78125</v>
+        <v>1.4583333333333332E-2</v>
       </c>
       <c r="E250" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F250" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G250" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C251" s="1">
-        <v>43878</v>
+        <v>43869</v>
       </c>
       <c r="D251" s="2">
-        <v>0.64583333333333337</v>
+        <v>5.1388888888888894E-2</v>
       </c>
       <c r="E251" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="F251" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G251" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
-        <v>224</v>
+      <c r="A252" s="3">
+        <v>20020600322</v>
       </c>
       <c r="B252" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C252" s="1">
-        <v>43878</v>
+        <v>43867</v>
       </c>
       <c r="D252" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="E252" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="F252" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G252" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C253" s="1">
-        <v>43878</v>
+        <v>43866</v>
       </c>
       <c r="D253" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="E253" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F253" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G253" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C254" s="1">
-        <v>43878</v>
+        <v>43866</v>
       </c>
       <c r="D254" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="E254" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F254" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G254" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C255" s="1">
-        <v>43878</v>
+        <v>43866</v>
       </c>
       <c r="D255" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="E255" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F255" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G255" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C256" s="1">
-        <v>43878</v>
+        <v>43866</v>
       </c>
       <c r="D256" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="E256" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F256" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G256" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="C257" s="1">
-        <v>43878</v>
+        <v>43866</v>
       </c>
       <c r="D257" s="2">
-        <v>0.46319444444444446</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="E257" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="F257" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G257" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="B258" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C258" s="1">
-        <v>43876</v>
+        <v>43866</v>
       </c>
       <c r="D258" s="2">
-        <v>0.79236111111111107</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="E258" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F258" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G258" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C259" s="1">
-        <v>43876</v>
+        <v>43866</v>
       </c>
       <c r="D259" s="2">
-        <v>0.79236111111111107</v>
+        <v>0.57430555555555551</v>
       </c>
       <c r="E259" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F259" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G259" t="b">
-        <f t="shared" ref="G259:G322" si="4">ISNUMBER(SEARCH("suspects",E259))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B260" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C260" s="1">
-        <v>43875</v>
+        <v>43866</v>
       </c>
       <c r="D260" s="2">
-        <v>0.36041666666666666</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="E260" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F260" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G260" t="b">
         <f t="shared" si="4"/>
@@ -8544,22 +8544,22 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="B261" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C261" s="1">
-        <v>43873</v>
+        <v>43865</v>
       </c>
       <c r="D261" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E261" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F261" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G261" t="b">
         <f t="shared" si="4"/>
@@ -8568,22 +8568,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="B262" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C262" s="1">
-        <v>43873</v>
+        <v>43865</v>
       </c>
       <c r="D262" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E262" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F262" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G262" t="b">
         <f t="shared" si="4"/>
@@ -8592,46 +8592,46 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="B263" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C263" s="1">
-        <v>43873</v>
+        <v>43865</v>
       </c>
       <c r="D263" s="2">
-        <v>0.64097222222222217</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E263" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="F263" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G263" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="B264" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C264" s="1">
-        <v>43873</v>
+        <v>43865</v>
       </c>
       <c r="D264" s="2">
-        <v>0.66527777777777775</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E264" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="F264" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G264" t="b">
         <f t="shared" si="4"/>
@@ -8640,22 +8640,22 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="B265" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C265" s="1">
-        <v>43872</v>
+        <v>43865</v>
       </c>
       <c r="D265" s="2">
-        <v>0.8569444444444444</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E265" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F265" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G265" t="b">
         <f t="shared" si="4"/>
@@ -8664,22 +8664,22 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="B266" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C266" s="1">
-        <v>43872</v>
+        <v>43864</v>
       </c>
       <c r="D266" s="2">
-        <v>0.8569444444444444</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="E266" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="F266" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G266" t="b">
         <f t="shared" si="4"/>
@@ -8688,22 +8688,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C267" s="1">
-        <v>43872</v>
+        <v>43864</v>
       </c>
       <c r="D267" s="2">
-        <v>0.8569444444444444</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="E267" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="F267" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G267" t="b">
         <f t="shared" si="4"/>
@@ -8712,22 +8712,22 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="B268" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C268" s="1">
-        <v>43872</v>
+        <v>43864</v>
       </c>
       <c r="D268" s="2">
-        <v>0.90416666666666667</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="E268" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F268" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G268" t="b">
         <f t="shared" si="4"/>
@@ -8736,22 +8736,22 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="B269" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C269" s="1">
-        <v>43872</v>
+        <v>43864</v>
       </c>
       <c r="D269" s="2">
-        <v>0.90416666666666667</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="E269" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F269" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G269" t="b">
         <f t="shared" si="4"/>
@@ -8760,22 +8760,22 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="B270" t="s">
         <v>21</v>
       </c>
       <c r="C270" s="1">
-        <v>43872</v>
+        <v>43864</v>
       </c>
       <c r="D270" s="2">
-        <v>0.90416666666666667</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="E270" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F270" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G270" t="b">
         <f t="shared" si="4"/>
@@ -8784,22 +8784,22 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="B271" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="C271" s="1">
-        <v>43871</v>
+        <v>43864</v>
       </c>
       <c r="D271" s="2">
-        <v>0.43263888888888885</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="E271" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="F271" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G271" t="b">
         <f t="shared" si="4"/>
@@ -8808,22 +8808,22 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="B272" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C272" s="1">
-        <v>43871</v>
+        <v>43864</v>
       </c>
       <c r="D272" s="2">
-        <v>0.43263888888888885</v>
+        <v>0.81180555555555556</v>
       </c>
       <c r="E272" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="F272" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G272" t="b">
         <f t="shared" si="4"/>
@@ -8832,22 +8832,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="B273" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="C273" s="1">
-        <v>43871</v>
+        <v>43864</v>
       </c>
       <c r="D273" s="2">
-        <v>1.4583333333333332E-2</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E273" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F273" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G273" t="b">
         <f t="shared" si="4"/>
@@ -8856,70 +8856,70 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="B274" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C274" s="1">
-        <v>43869</v>
+        <v>43862</v>
       </c>
       <c r="D274" s="2">
-        <v>5.1388888888888894E-2</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="E274" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="F274" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G274" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" s="3">
-        <v>20020600322</v>
+      <c r="A275" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C275" s="1">
-        <v>43867</v>
+        <v>43862</v>
       </c>
       <c r="D275" s="2">
-        <v>0.62916666666666665</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="E275" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="F275" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G275" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C276" s="1">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="D276" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="E276" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="F276" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G276" t="b">
         <f t="shared" si="4"/>
@@ -8928,22 +8928,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="B277" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C277" s="1">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="D277" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="E277" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="F277" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G277" t="b">
         <f t="shared" si="4"/>
@@ -8952,22 +8952,22 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C278" s="1">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="D278" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="E278" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="F278" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G278" t="b">
         <f t="shared" si="4"/>
@@ -8976,22 +8976,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C279" s="1">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="D279" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.81805555555555554</v>
       </c>
       <c r="E279" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="F279" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G279" t="b">
         <f t="shared" si="4"/>
@@ -9000,22 +9000,22 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C280" s="1">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="D280" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.53402777777777777</v>
       </c>
       <c r="E280" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="F280" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G280" t="b">
         <f t="shared" si="4"/>
@@ -9024,22 +9024,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="B281" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C281" s="1">
-        <v>43866</v>
+        <v>43860</v>
       </c>
       <c r="D281" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="E281" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="F281" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G281" t="b">
         <f t="shared" si="4"/>
@@ -9048,22 +9048,22 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="B282" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C282" s="1">
-        <v>43866</v>
+        <v>43860</v>
       </c>
       <c r="D282" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="E282" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="F282" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G282" t="b">
         <f t="shared" si="4"/>
@@ -9072,46 +9072,46 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C283" s="1">
-        <v>43866</v>
+        <v>43859</v>
       </c>
       <c r="D283" s="2">
-        <v>0.57430555555555551</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="E283" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F283" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G283" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="B284" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C284" s="1">
-        <v>43866</v>
+        <v>43859</v>
       </c>
       <c r="D284" s="2">
-        <v>0.32708333333333334</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="E284" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="F284" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G284" t="b">
         <f t="shared" si="4"/>
@@ -9120,19 +9120,19 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C285" s="1">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="D285" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="E285" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F285" t="s">
         <v>11</v>
@@ -9144,19 +9144,19 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C286" s="1">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="D286" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="E286" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F286" t="s">
         <v>11</v>
@@ -9168,19 +9168,19 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C287" s="1">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="D287" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="E287" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F287" t="s">
         <v>11</v>
@@ -9192,19 +9192,19 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C288" s="1">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="D288" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="E288" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F288" t="s">
         <v>11</v>
@@ -9216,19 +9216,19 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C289" s="1">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="D289" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E289" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F289" t="s">
         <v>11</v>
@@ -9240,19 +9240,19 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
       </c>
       <c r="C290" s="1">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="D290" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E290" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F290" t="s">
         <v>11</v>
@@ -9264,19 +9264,19 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B291" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C291" s="1">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="D291" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.69652777777777775</v>
       </c>
       <c r="E291" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="F291" t="s">
         <v>11</v>
@@ -9288,46 +9288,46 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C292" s="1">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="D292" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="E292" t="s">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="F292" t="s">
         <v>11</v>
       </c>
       <c r="G292" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B293" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C293" s="1">
-        <v>43864</v>
+        <v>43858</v>
       </c>
       <c r="D293" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="E293" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="F293" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G293" t="b">
         <f t="shared" si="4"/>
@@ -9336,22 +9336,22 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B294" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C294" s="1">
-        <v>43864</v>
+        <v>43858</v>
       </c>
       <c r="D294" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="E294" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="F294" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G294" t="b">
         <f t="shared" si="4"/>
@@ -9360,22 +9360,22 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B295" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C295" s="1">
-        <v>43864</v>
+        <v>43858</v>
       </c>
       <c r="D295" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E295" t="s">
-        <v>459</v>
+        <v>377</v>
       </c>
       <c r="F295" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G295" t="b">
         <f t="shared" si="4"/>
@@ -9384,22 +9384,22 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C296" s="1">
-        <v>43864</v>
+        <v>43857</v>
       </c>
       <c r="D296" s="2">
-        <v>0.72569444444444453</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="E296" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F296" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G296" t="b">
         <f t="shared" si="4"/>
@@ -9408,22 +9408,22 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B297" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C297" s="1">
-        <v>43864</v>
+        <v>43855</v>
       </c>
       <c r="D297" s="2">
-        <v>0.81180555555555556</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="E297" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G297" t="b">
         <f t="shared" si="4"/>
@@ -9432,944 +9432,344 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B298" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C298" s="1">
-        <v>43864</v>
+        <v>43855</v>
       </c>
       <c r="D298" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="E298" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="F298" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G298" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G298:G311" si="5">ISNUMBER(SEARCH("suspects",E298))</f>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B299" t="s">
         <v>117</v>
       </c>
       <c r="C299" s="1">
-        <v>43862</v>
+        <v>43854</v>
       </c>
       <c r="D299" s="2">
-        <v>0.20972222222222223</v>
+        <v>0.78194444444444444</v>
       </c>
       <c r="E299" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="F299" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G299" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B300" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C300" s="1">
-        <v>43862</v>
+        <v>43853</v>
       </c>
       <c r="D300" s="2">
-        <v>0.20972222222222223</v>
+        <v>0.82777777777777783</v>
       </c>
       <c r="E300" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G300" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C301" s="1">
-        <v>43861</v>
+        <v>43853</v>
       </c>
       <c r="D301" s="2">
-        <v>0.46319444444444446</v>
+        <v>0.82777777777777783</v>
       </c>
       <c r="E301" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F301" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G301" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B302" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C302" s="1">
-        <v>43861</v>
+        <v>43853</v>
       </c>
       <c r="D302" s="2">
-        <v>0.46319444444444446</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="E302" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="F302" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G302" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B303" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C303" s="1">
-        <v>43861</v>
+        <v>43853</v>
       </c>
       <c r="D303" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.99444444444444446</v>
       </c>
       <c r="E303" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F303" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G303" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B304" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C304" s="1">
-        <v>43861</v>
+        <v>43853</v>
       </c>
       <c r="D304" s="2">
-        <v>0.81805555555555554</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="E304" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F304" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G304" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C305" s="1">
-        <v>43861</v>
+        <v>43853</v>
       </c>
       <c r="D305" s="2">
-        <v>0.53402777777777777</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="E305" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F305" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G305" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B306" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C306" s="1">
-        <v>43860</v>
+        <v>43852</v>
       </c>
       <c r="D306" s="2">
-        <v>0.50208333333333333</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="E306" t="s">
-        <v>373</v>
+        <v>461</v>
       </c>
       <c r="F306" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G306" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C307" s="1">
-        <v>43860</v>
+        <v>43852</v>
       </c>
       <c r="D307" s="2">
-        <v>0.62430555555555556</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="E307" t="s">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="F307" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G307" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C308" s="1">
-        <v>43859</v>
+        <v>43852</v>
       </c>
       <c r="D308" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="E308" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="F308" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G308" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C309" s="1">
-        <v>43859</v>
+        <v>43852</v>
       </c>
       <c r="D309" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="E309" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="F309" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G309" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B310" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C310" s="1">
-        <v>43859</v>
+        <v>43852</v>
       </c>
       <c r="D310" s="2">
-        <v>0.56805555555555554</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="E310" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F310" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G310" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B311" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C311" s="1">
-        <v>43859</v>
+        <v>43852</v>
       </c>
       <c r="D311" s="2">
-        <v>0.56805555555555554</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E311" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F311" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G311" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B312" t="s">
-        <v>117</v>
-      </c>
-      <c r="C312" s="1">
-        <v>43859</v>
-      </c>
-      <c r="D312" s="2">
-        <v>0.77569444444444446</v>
-      </c>
-      <c r="E312" t="s">
-        <v>411</v>
-      </c>
-      <c r="F312" t="s">
-        <v>11</v>
-      </c>
-      <c r="G312" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B313" t="s">
-        <v>120</v>
-      </c>
-      <c r="C313" s="1">
-        <v>43859</v>
-      </c>
-      <c r="D313" s="2">
-        <v>0.77569444444444446</v>
-      </c>
-      <c r="E313" t="s">
-        <v>411</v>
-      </c>
-      <c r="F313" t="s">
-        <v>11</v>
-      </c>
-      <c r="G313" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B314" t="s">
-        <v>6</v>
-      </c>
-      <c r="C314" s="1">
-        <v>43859</v>
-      </c>
-      <c r="D314" s="2">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E314" t="s">
-        <v>375</v>
-      </c>
-      <c r="F314" t="s">
-        <v>11</v>
-      </c>
-      <c r="G314" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B315" t="s">
-        <v>6</v>
-      </c>
-      <c r="C315" s="1">
-        <v>43859</v>
-      </c>
-      <c r="D315" s="2">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E315" t="s">
-        <v>375</v>
-      </c>
-      <c r="F315" t="s">
-        <v>11</v>
-      </c>
-      <c r="G315" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A316" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B316" t="s">
-        <v>15</v>
-      </c>
-      <c r="C316" s="1">
-        <v>43859</v>
-      </c>
-      <c r="D316" s="2">
-        <v>0.69652777777777775</v>
-      </c>
-      <c r="E316" t="s">
-        <v>376</v>
-      </c>
-      <c r="F316" t="s">
-        <v>11</v>
-      </c>
-      <c r="G316" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B317" t="s">
-        <v>5</v>
-      </c>
-      <c r="C317" s="1">
-        <v>43859</v>
-      </c>
-      <c r="D317" s="2">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="E317" t="s">
-        <v>396</v>
-      </c>
-      <c r="F317" t="s">
-        <v>11</v>
-      </c>
-      <c r="G317" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B318" t="s">
-        <v>117</v>
-      </c>
-      <c r="C318" s="1">
-        <v>43858</v>
-      </c>
-      <c r="D318" s="2">
-        <v>0.74375000000000002</v>
-      </c>
-      <c r="E318" t="s">
-        <v>412</v>
-      </c>
-      <c r="F318" t="s">
-        <v>4</v>
-      </c>
-      <c r="G318" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B319" t="s">
-        <v>119</v>
-      </c>
-      <c r="C319" s="1">
-        <v>43858</v>
-      </c>
-      <c r="D319" s="2">
-        <v>0.74375000000000002</v>
-      </c>
-      <c r="E319" t="s">
-        <v>412</v>
-      </c>
-      <c r="F319" t="s">
-        <v>4</v>
-      </c>
-      <c r="G319" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B320" t="s">
-        <v>117</v>
-      </c>
-      <c r="C320" s="1">
-        <v>43858</v>
-      </c>
-      <c r="D320" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E320" t="s">
-        <v>377</v>
-      </c>
-      <c r="F320" t="s">
-        <v>4</v>
-      </c>
-      <c r="G320" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B321" t="s">
-        <v>117</v>
-      </c>
-      <c r="C321" s="1">
-        <v>43857</v>
-      </c>
-      <c r="D321" s="2">
-        <v>0.34861111111111115</v>
-      </c>
-      <c r="E321" t="s">
-        <v>378</v>
-      </c>
-      <c r="F321" t="s">
-        <v>4</v>
-      </c>
-      <c r="G321" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B322" t="s">
-        <v>117</v>
-      </c>
-      <c r="C322" s="1">
-        <v>43855</v>
-      </c>
-      <c r="D322" s="2">
-        <v>0.7284722222222223</v>
-      </c>
-      <c r="E322" t="s">
-        <v>400</v>
-      </c>
-      <c r="F322" t="s">
-        <v>4</v>
-      </c>
-      <c r="G322" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B323" t="s">
-        <v>10</v>
-      </c>
-      <c r="C323" s="1">
-        <v>43855</v>
-      </c>
-      <c r="D323" s="2">
-        <v>0.7284722222222223</v>
-      </c>
-      <c r="E323" t="s">
-        <v>400</v>
-      </c>
-      <c r="F323" t="s">
-        <v>4</v>
-      </c>
-      <c r="G323" t="b">
-        <f t="shared" ref="G323:G336" si="5">ISNUMBER(SEARCH("suspects",E323))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B324" t="s">
-        <v>117</v>
-      </c>
-      <c r="C324" s="1">
-        <v>43854</v>
-      </c>
-      <c r="D324" s="2">
-        <v>0.78194444444444444</v>
-      </c>
-      <c r="E324" t="s">
-        <v>379</v>
-      </c>
-      <c r="F324" t="s">
-        <v>4</v>
-      </c>
-      <c r="G324" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B325" t="s">
-        <v>117</v>
-      </c>
-      <c r="C325" s="1">
-        <v>43853</v>
-      </c>
-      <c r="D325" s="2">
-        <v>0.82777777777777783</v>
-      </c>
-      <c r="E325" t="s">
-        <v>428</v>
-      </c>
-      <c r="F325" t="s">
-        <v>4</v>
-      </c>
-      <c r="G325" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B326" t="s">
-        <v>9</v>
-      </c>
-      <c r="C326" s="1">
-        <v>43853</v>
-      </c>
-      <c r="D326" s="2">
-        <v>0.82777777777777783</v>
-      </c>
-      <c r="E326" t="s">
-        <v>428</v>
-      </c>
-      <c r="F326" t="s">
-        <v>4</v>
-      </c>
-      <c r="G326" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B327" t="s">
-        <v>117</v>
-      </c>
-      <c r="C327" s="1">
-        <v>43853</v>
-      </c>
-      <c r="D327" s="2">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="E327" t="s">
-        <v>380</v>
-      </c>
-      <c r="F327" t="s">
-        <v>4</v>
-      </c>
-      <c r="G327" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A328" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B328" t="s">
-        <v>118</v>
-      </c>
-      <c r="C328" s="1">
-        <v>43853</v>
-      </c>
-      <c r="D328" s="2">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="E328" t="s">
-        <v>383</v>
-      </c>
-      <c r="F328" t="s">
-        <v>4</v>
-      </c>
-      <c r="G328" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B329" t="s">
-        <v>117</v>
-      </c>
-      <c r="C329" s="1">
-        <v>43853</v>
-      </c>
-      <c r="D329" s="2">
-        <v>0.6479166666666667</v>
-      </c>
-      <c r="E329" t="s">
-        <v>382</v>
-      </c>
-      <c r="F329" t="s">
-        <v>4</v>
-      </c>
-      <c r="G329" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B330" t="s">
-        <v>8</v>
-      </c>
-      <c r="C330" s="1">
-        <v>43853</v>
-      </c>
-      <c r="D330" s="2">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="E330" t="s">
-        <v>381</v>
-      </c>
-      <c r="F330" t="s">
-        <v>4</v>
-      </c>
-      <c r="G330" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B331" t="s">
-        <v>115</v>
-      </c>
-      <c r="C331" s="1">
-        <v>43852</v>
-      </c>
-      <c r="D331" s="2">
-        <v>0.79305555555555562</v>
-      </c>
-      <c r="E331" t="s">
-        <v>461</v>
-      </c>
-      <c r="F331" t="s">
-        <v>4</v>
-      </c>
-      <c r="G331" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B332" t="s">
-        <v>6</v>
-      </c>
-      <c r="C332" s="1">
-        <v>43852</v>
-      </c>
-      <c r="D332" s="2">
-        <v>0.79305555555555562</v>
-      </c>
-      <c r="E332" t="s">
-        <v>461</v>
-      </c>
-      <c r="F332" t="s">
-        <v>4</v>
-      </c>
-      <c r="G332" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B333" t="s">
-        <v>116</v>
-      </c>
-      <c r="C333" s="1">
-        <v>43852</v>
-      </c>
-      <c r="D333" s="2">
-        <v>0.79305555555555562</v>
-      </c>
-      <c r="E333" t="s">
-        <v>461</v>
-      </c>
-      <c r="F333" t="s">
-        <v>4</v>
-      </c>
-      <c r="G333" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B334" t="s">
-        <v>7</v>
-      </c>
-      <c r="C334" s="1">
-        <v>43852</v>
-      </c>
-      <c r="D334" s="2">
-        <v>0.79305555555555562</v>
-      </c>
-      <c r="E334" t="s">
-        <v>461</v>
-      </c>
-      <c r="F334" t="s">
-        <v>4</v>
-      </c>
-      <c r="G334" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A335" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B335" t="s">
-        <v>114</v>
-      </c>
-      <c r="C335" s="1">
-        <v>43852</v>
-      </c>
-      <c r="D335" s="2">
-        <v>0.59583333333333333</v>
-      </c>
-      <c r="E335" t="s">
-        <v>384</v>
-      </c>
-      <c r="F335" t="s">
-        <v>4</v>
-      </c>
-      <c r="G335" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B336" t="s">
-        <v>5</v>
-      </c>
-      <c r="C336" s="1">
-        <v>43852</v>
-      </c>
-      <c r="D336" s="2">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E336" t="s">
-        <v>397</v>
-      </c>
-      <c r="F336" t="s">
-        <v>4</v>
-      </c>
-      <c r="G336" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G337" xr:uid="{8ACC0F39-880D-F548-95E8-BF6720FE1838}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G336">
-    <sortCondition descending="1" ref="G1:G336"/>
+  <autoFilter ref="G1:G312" xr:uid="{8ACC0F39-880D-F548-95E8-BF6720FE1838}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G311">
+    <sortCondition descending="1" ref="G1:G311"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
